--- a/Test_mono2.xlsx
+++ b/Test_mono2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbgan\OneDrive\Desktop\WORK\Aj_Woot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94C5E44-2D79-4888-8D2C-1CDAA5FDBC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074F53F-34BB-4B83-A08C-3C86DD513204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{29004776-18DE-466A-8025-2390A1832D06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29004776-18DE-466A-8025-2390A1832D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_mono2" sheetId="1" r:id="rId1"/>
@@ -2651,10 +2651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F0A25E-BC79-46F4-BB6C-776B7465BF37}">
-  <dimension ref="A1:AC286"/>
+  <dimension ref="A1:AC297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D183" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" topLeftCell="D137" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2663,7 +2663,7 @@
     <col min="2" max="2" width="9.140625" style="5"/>
     <col min="3" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="40.140625" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
@@ -28183,6 +28183,24 @@
       </c>
       <c r="I286" s="20"/>
     </row>
+    <row r="293" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F293" s="5">
+        <f>(0.006-0.01)*300+60.17</f>
+        <v>58.97</v>
+      </c>
+    </row>
+    <row r="295" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F295" s="5">
+        <f>3.53/0.06</f>
+        <v>58.833333333333336</v>
+      </c>
+    </row>
+    <row r="297" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F297" s="5">
+        <f>3.6/0.06</f>
+        <v>60.000000000000007</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Test_mono2.xlsx
+++ b/Test_mono2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbgan\OneDrive\Desktop\WORK\Aj_Woot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074F53F-34BB-4B83-A08C-3C86DD513204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4290F06-222E-4B84-8041-08C6A0A7963C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{29004776-18DE-466A-8025-2390A1832D06}"/>
   </bookViews>
@@ -2653,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F0A25E-BC79-46F4-BB6C-776B7465BF37}">
   <dimension ref="A1:AC297"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D137" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="F192" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2669,7 +2669,7 @@
     <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="5" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="5"/>
+    <col min="12" max="12" width="11.5703125" style="5" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="5"/>
     <col min="15" max="15" width="13.42578125" style="14" customWidth="1"/>
@@ -28185,14 +28185,14 @@
     </row>
     <row r="293" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F293" s="5">
-        <f>(0.006-0.01)*300+60.17</f>
-        <v>58.97</v>
+        <f>(0.065)*500+59.67</f>
+        <v>92.17</v>
       </c>
     </row>
     <row r="295" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F295" s="5">
-        <f>3.53/0.06</f>
-        <v>58.833333333333336</v>
+        <f>3.75/0.06</f>
+        <v>62.5</v>
       </c>
     </row>
     <row r="297" spans="6:6" x14ac:dyDescent="0.35">
